--- a/schema/pierre/schema.xlsx
+++ b/schema/pierre/schema.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="102">
   <si>
     <t>Article</t>
   </si>
@@ -179,18 +179,6 @@
     <t>X (utilise d'abord des metriques pour isoler des micro-component</t>
   </si>
   <si>
-    <t>not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">finished </t>
-  </si>
-  <si>
-    <t>yet</t>
-  </si>
-  <si>
-    <t>..</t>
-  </si>
-  <si>
     <t>X (Java dans l'article + depend d'un plugin eclipse)</t>
   </si>
   <si>
@@ -203,9 +191,6 @@
     <t>X (alo)</t>
   </si>
   <si>
-    <t>""Vrije Universiteit Brussel""</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
@@ -260,24 +245,9 @@
     <t>X( fuzzy logic)</t>
   </si>
   <si>
-    <t>Cet article est une review de deux methodes existante</t>
-  </si>
-  <si>
-    <t>X (UML?)</t>
-  </si>
-  <si>
-    <t>Cela ne detecte pas les DPs mais ou sont les codes smells</t>
-  </si>
-  <si>
     <t>Cet article est introuvable</t>
   </si>
   <si>
-    <t>Cela ne detecte pas les DPs mais si ils peuvent être utile pour la migration</t>
-  </si>
-  <si>
-    <t>Cela ne detecte pas les DPs mais propose des metrics pour evaluer leur qualité une fois detecter (par un autre processus)</t>
-  </si>
-  <si>
     <t>X (similarity scoring)</t>
   </si>
   <si>
@@ -294,6 +264,72 @@
   </si>
   <si>
     <t>X (classe + relation entre classe)</t>
+  </si>
+  <si>
+    <t>Graph-matching</t>
+  </si>
+  <si>
+    <t>Cet article ne présente pas un outils de detection mais un outils pour passer d'une code a un modele. Un exemple est fourni pour detecter le pattern composite mais c'est tout</t>
+  </si>
+  <si>
+    <t>Cela ne detecte pas les DPs mais dit si pour chaque, ils peuvent être utile pour la migration</t>
+  </si>
+  <si>
+    <t>Cela ne detecte pas les DPs mais ou sont se situe les codes smells</t>
+  </si>
+  <si>
+    <t>Cet article est une review de deux methodes existante de detection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cela ne detecte pas les DPs mais propose des metrics pour evaluer leur qualité une fois detecter (par un autre processus) </t>
+  </si>
+  <si>
+    <t>X (ontology)</t>
+  </si>
+  <si>
+    <t>x (java byte code)</t>
+  </si>
+  <si>
+    <t>X (singleton)</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Fusion des resultats de plusieurs outils</t>
+  </si>
+  <si>
+    <t>X (Seul 2 DPs peuvent être detecté avec cette méthodes)</t>
+  </si>
+  <si>
+    <t>Identification de microstructure.</t>
+  </si>
+  <si>
+    <t>Les DPs de cette articles sont (liste non exhaustive) : Drawing,  Text  editing, puzzle, …</t>
+  </si>
+  <si>
+    <t>X (find subset of known motif)</t>
+  </si>
+  <si>
+    <t>X (some NLP)</t>
+  </si>
+  <si>
+    <t>X (CSP )</t>
+  </si>
+  <si>
+    <t>X( numerical signature from metrics)</t>
+  </si>
+  <si>
+    <t>Exploratory study</t>
+  </si>
+  <si>
+    <t>X (constaint programming)</t>
+  </si>
+  <si>
+    <t>X (dynamic profiling)</t>
+  </si>
+  <si>
+    <t>Ce que trouve d'autres programmes de DDP en input</t>
   </si>
 </sst>
 </file>
@@ -331,7 +367,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -376,7 +412,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,7 +477,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -529,14 +571,26 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -820,8 +874,8 @@
   <dimension ref="A1:AD34"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="83" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -836,6 +890,7 @@
     <col min="23" max="23" width="10.83203125" style="1"/>
     <col min="27" max="27" width="10.83203125" style="1"/>
     <col min="29" max="29" width="10.83203125" style="1"/>
+    <col min="30" max="30" width="39.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="64" x14ac:dyDescent="0.2">
@@ -945,10 +1000,10 @@
         <v>9</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="V2" s="9" t="s">
         <v>30</v>
@@ -1186,23 +1241,33 @@
       </c>
       <c r="AD6" s="4"/>
     </row>
-    <row r="7" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="33">
+    <row r="7" spans="1:30" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="16">
         <v>39</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="4"/>
+      <c r="I7" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="K7" s="11"/>
-      <c r="L7" s="4"/>
+      <c r="L7" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="M7" s="4"/>
       <c r="N7" s="11"/>
-      <c r="O7" s="4"/>
+      <c r="O7" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
@@ -1210,10 +1275,18 @@
       <c r="T7" s="11"/>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
+      <c r="W7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="AA7" s="11"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="11"/>
@@ -1252,7 +1325,7 @@
       <c r="AB8" s="14"/>
       <c r="AC8" s="13"/>
       <c r="AD8" s="14" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:30" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -1262,7 +1335,7 @@
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1270,7 +1343,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="11"/>
       <c r="J9" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K9" s="11"/>
       <c r="L9" s="4" t="s">
@@ -1290,53 +1363,53 @@
       </c>
       <c r="W9" s="11"/>
       <c r="X9" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="Y9" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="Z9" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AA9" s="11"/>
       <c r="AB9" s="4"/>
       <c r="AC9" s="11"/>
       <c r="AD9" s="4"/>
     </row>
-    <row r="10" spans="1:30" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A10" s="33">
+    <row r="10" spans="1:30" s="39" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A10" s="37">
         <v>86</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="11"/>
-      <c r="AD10" s="4" t="s">
-        <v>59</v>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="38"/>
+      <c r="Y10" s="38"/>
+      <c r="Z10" s="38"/>
+      <c r="AA10" s="37"/>
+      <c r="AB10" s="38"/>
+      <c r="AC10" s="37"/>
+      <c r="AD10" s="38" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:30" s="29" customFormat="1" ht="240" x14ac:dyDescent="0.2">
@@ -1391,8 +1464,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="33">
+    <row r="12" spans="1:30" s="3" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A12" s="16">
         <v>109</v>
       </c>
       <c r="B12" s="4"/>
@@ -1402,10 +1475,16 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="11"/>
+      <c r="I12" s="11" t="s">
+        <v>92</v>
+      </c>
       <c r="J12" s="4"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="4"/>
+      <c r="K12" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="M12" s="4"/>
       <c r="N12" s="11"/>
       <c r="O12" s="4"/>
@@ -1413,79 +1492,81 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="11"/>
+      <c r="T12" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
+      <c r="V12" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="W12" s="11"/>
-      <c r="X12" s="4"/>
+      <c r="X12" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
+      <c r="Z12" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="AA12" s="11"/>
       <c r="AB12" s="4"/>
-      <c r="AC12" s="11"/>
+      <c r="AC12" s="11" t="s">
+        <v>91</v>
+      </c>
       <c r="AD12" s="4"/>
     </row>
-    <row r="13" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="33">
+    <row r="13" spans="1:30" s="21" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="19">
         <v>112</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="11"/>
-      <c r="AD13" s="4"/>
-    </row>
-    <row r="14" spans="1:30" s="26" customFormat="1" ht="128" x14ac:dyDescent="0.2">
-      <c r="A14" s="34">
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="19"/>
+      <c r="AD13" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" s="26" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A14" s="22">
         <v>162</v>
       </c>
-      <c r="B14" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>52</v>
-      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>54</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
       <c r="G14" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="23" t="s">
-        <v>54</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="H14" s="23"/>
       <c r="I14" s="24" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="J14" s="23" t="s">
         <v>46</v>
@@ -1560,7 +1641,7 @@
       </c>
       <c r="U15" s="4"/>
       <c r="V15" s="12" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="W15" s="11"/>
       <c r="X15" s="4" t="s">
@@ -1594,11 +1675,11 @@
       <c r="H16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I16" s="35" t="s">
-        <v>74</v>
+      <c r="I16" s="33" t="s">
+        <v>69</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="K16" s="11"/>
       <c r="L16" s="4" t="s">
@@ -1635,89 +1716,105 @@
       </c>
       <c r="AD16" s="4"/>
     </row>
-    <row r="17" spans="1:30" s="3" customFormat="1" ht="96" x14ac:dyDescent="0.2">
-      <c r="A17" s="11">
+    <row r="17" spans="1:30" s="36" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A17" s="34">
         <v>214</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M17" s="4"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="11"/>
-      <c r="AD17" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="33">
+      <c r="B17" s="35"/>
+      <c r="C17" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="L17" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" s="35"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="X17" s="35"/>
+      <c r="Y17" s="35"/>
+      <c r="Z17" s="35"/>
+      <c r="AA17" s="34"/>
+      <c r="AB17" s="35"/>
+      <c r="AC17" s="34"/>
+      <c r="AD17" s="35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" s="16">
         <v>222</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="11"/>
-      <c r="J18" s="4"/>
+      <c r="J18" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="K18" s="11"/>
-      <c r="L18" s="4"/>
+      <c r="L18" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="M18" s="4"/>
       <c r="N18" s="11"/>
       <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
+      <c r="P18" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
       <c r="T18" s="11"/>
-      <c r="U18" s="4"/>
+      <c r="U18" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="V18" s="4"/>
       <c r="W18" s="11"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
+      <c r="X18" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y18" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z18" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="AA18" s="11"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="11"/>
       <c r="AD18" s="4"/>
     </row>
-    <row r="19" spans="1:30" s="21" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" s="21" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="19">
         <v>232</v>
       </c>
@@ -1750,11 +1847,11 @@
       <c r="AB19" s="20"/>
       <c r="AC19" s="19"/>
       <c r="AD19" s="20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="33">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A20" s="16">
         <v>233</v>
       </c>
       <c r="B20" s="4"/>
@@ -1764,64 +1861,100 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="4"/>
+      <c r="I20" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="K20" s="11"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="4"/>
+      <c r="N20" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
       <c r="T20" s="11"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
+      <c r="U20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V20" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="W20" s="11"/>
       <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
+      <c r="Y20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z20" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="AA20" s="11"/>
       <c r="AB20" s="4"/>
-      <c r="AC20" s="11"/>
+      <c r="AC20" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="AD20" s="4"/>
     </row>
-    <row r="21" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="33">
+    <row r="21" spans="1:30" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A21" s="16">
         <v>236</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="11"/>
-      <c r="J21" s="4"/>
+      <c r="J21" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="K21" s="11"/>
-      <c r="L21" s="4"/>
+      <c r="L21" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="M21" s="4"/>
       <c r="N21" s="11"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
+      <c r="S21" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="T21" s="11"/>
       <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
+      <c r="V21" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="W21" s="11"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
+      <c r="X21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y21" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="Z21" s="4"/>
       <c r="AA21" s="11"/>
       <c r="AB21" s="4"/>
-      <c r="AC21" s="11"/>
+      <c r="AC21" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="AD21" s="4"/>
     </row>
-    <row r="22" spans="1:30" s="21" customFormat="1" ht="128" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" s="21" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A22" s="19">
         <v>243</v>
       </c>
@@ -1921,7 +2054,7 @@
       <c r="I24" s="11"/>
       <c r="J24" s="4"/>
       <c r="K24" s="11" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="L24" s="4" t="s">
         <v>32</v>
@@ -1938,7 +2071,7 @@
       <c r="T24" s="11"/>
       <c r="U24" s="4"/>
       <c r="V24" s="4" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="W24" s="11"/>
       <c r="X24" s="4"/>
@@ -1948,12 +2081,12 @@
       <c r="Z24" s="4"/>
       <c r="AA24" s="11"/>
       <c r="AB24" s="4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AC24" s="11"/>
       <c r="AD24" s="4"/>
     </row>
-    <row r="25" spans="1:30" s="21" customFormat="1" ht="224" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" s="21" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A25" s="19">
         <v>247</v>
       </c>
@@ -1986,41 +2119,61 @@
       <c r="AB25" s="20"/>
       <c r="AC25" s="19"/>
       <c r="AD25" s="20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="33">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A26" s="16">
         <v>255</v>
       </c>
-      <c r="B26" s="4"/>
+      <c r="B26" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
+      <c r="H26" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="I26" s="11"/>
-      <c r="J26" s="4"/>
+      <c r="J26" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="K26" s="11"/>
-      <c r="L26" s="4"/>
+      <c r="L26" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="M26" s="4"/>
       <c r="N26" s="11"/>
       <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
+      <c r="P26" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
       <c r="T26" s="11"/>
       <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
+      <c r="V26" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="W26" s="11"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="4"/>
+      <c r="X26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z26" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="AA26" s="11"/>
       <c r="AB26" s="4"/>
-      <c r="AC26" s="11"/>
+      <c r="AC26" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="AD26" s="4"/>
     </row>
     <row r="27" spans="1:30" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -2090,7 +2243,7 @@
       <c r="H28" s="4"/>
       <c r="I28" s="11"/>
       <c r="J28" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K28" s="11"/>
       <c r="L28" s="4" t="s">
@@ -2137,10 +2290,10 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="11" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="K29" s="11"/>
       <c r="L29" s="4" t="s">
@@ -2157,7 +2310,7 @@
       <c r="S29" s="4"/>
       <c r="T29" s="11"/>
       <c r="U29" s="4" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="V29" s="4"/>
       <c r="W29" s="11"/>
@@ -2182,7 +2335,7 @@
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -2190,7 +2343,7 @@
       <c r="H30" s="4"/>
       <c r="I30" s="11"/>
       <c r="J30" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="K30" s="11"/>
       <c r="L30" s="4" t="s">
@@ -2212,13 +2365,13 @@
       </c>
       <c r="W30" s="11"/>
       <c r="X30" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="Y30" s="4"/>
       <c r="Z30" s="4"/>
       <c r="AA30" s="11"/>
       <c r="AB30" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="AC30" s="11"/>
       <c r="AD30" s="4"/>
@@ -2235,7 +2388,7 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="17" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="11" t="s">
@@ -2261,14 +2414,14 @@
       <c r="Y31" s="4"/>
       <c r="Z31" s="4"/>
       <c r="AA31" s="11" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB31" s="4"/>
       <c r="AC31" s="11" t="s">
         <v>32</v>
       </c>
       <c r="AD31" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2278,7 +2431,7 @@
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -2286,7 +2439,7 @@
       <c r="H32" s="4"/>
       <c r="I32" s="11"/>
       <c r="J32" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="K32" s="11"/>
       <c r="L32" s="4" t="s">
@@ -2331,7 +2484,7 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="17" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="11" t="s">
@@ -2364,7 +2517,7 @@
         <v>32</v>
       </c>
       <c r="AD33" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:30" s="3" customFormat="1" ht="96" x14ac:dyDescent="0.2">
@@ -2374,7 +2527,7 @@
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>32</v>
@@ -2383,10 +2536,10 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K34" s="11"/>
       <c r="L34" s="4" t="s">
@@ -2422,7 +2575,7 @@
         <v>32</v>
       </c>
       <c r="AD34" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
